--- a/Quality reports shared/tools difference.xlsx
+++ b/Quality reports shared/tools difference.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F141"/>
+  <dimension ref="A1:F125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1329,14 +1329,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Compound Sacks</t>
-        </is>
-      </c>
-      <c r="E33" t="n">
-        <v>1</v>
-      </c>
+          <t>Pruning saw</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
       <c r="F33" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34">
@@ -1357,12 +1355,14 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Pruning saw</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr"/>
+          <t>Rope</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>1</v>
+      </c>
       <c r="F34" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1378,19 +1378,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Nganiko_3</t>
+          <t>Zanzibar</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Rope</t>
-        </is>
-      </c>
-      <c r="E35" t="n">
-        <v>1</v>
-      </c>
+          <t>Pruning saw</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36">
@@ -1411,12 +1409,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Pruning saw</t>
+          <t>Rope</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1427,22 +1425,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Muyenga</t>
+          <t>Nganiko</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Zanzibar</t>
+          <t>Kagorogoro_A</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Rope</t>
+          <t>Pruning saw</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38">
@@ -1458,7 +1456,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Kagorogoro_A</t>
+          <t>Kagorogoro_B</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1489,12 +1487,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Pruning saw</t>
+          <t>Rope</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1510,17 +1508,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Kagorogoro_B</t>
+          <t>Kahenda</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Rope</t>
+          <t>Pruning saw</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41">
@@ -1541,12 +1539,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Pruning saw</t>
+          <t>Rope</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1562,17 +1560,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Kahenda</t>
+          <t>Kemihoko_A</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Rope</t>
+          <t>Pruning saw</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43">
@@ -1593,12 +1591,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Pruning saw</t>
+          <t>Rope</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1614,17 +1612,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Kemihoko_A</t>
+          <t>Kemihoko_B</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Rope</t>
+          <t>Pruning saw</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45">
@@ -1645,12 +1643,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Pruning saw</t>
+          <t>Rope</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1666,17 +1664,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Kemihoko_B</t>
+          <t>Nganiko_1</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Rope</t>
+          <t>Pruning saw</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47">
@@ -1697,12 +1695,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Pruning saw</t>
+          <t>Rope</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1718,17 +1716,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Nganiko_1</t>
+          <t>Nganiko_Central</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Rope</t>
+          <t>Pruning saw</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49">
@@ -1749,12 +1747,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Pruning saw</t>
+          <t>Rope</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1770,17 +1768,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Nganiko_Central</t>
+          <t>Nganiko_TC</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Rope</t>
+          <t>Pruning saw</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51">
@@ -1801,12 +1799,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Pruning saw</t>
+          <t>Rope</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1817,22 +1815,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Nganiko</t>
+          <t>Nyakacwamba</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Nganiko_TC</t>
+          <t>Kapapari</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Rope</t>
+          <t>Pruning saw</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53">
@@ -1853,12 +1851,14 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Pruning saw</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr"/>
+          <t>Rope</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
       <c r="F53" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
@@ -1874,19 +1874,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Kapapari</t>
+          <t>Karere_Nyakacwamba</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Rope</t>
-        </is>
-      </c>
-      <c r="E54" t="n">
-        <v>0</v>
-      </c>
+          <t>Pruning saw</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
       <c r="F54" t="n">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55">
@@ -1902,7 +1900,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Karere_Nyakacwamba</t>
+          <t>Karubuguma_1</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1912,7 +1910,7 @@
       </c>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56">
@@ -1928,7 +1926,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Karubuguma_1</t>
+          <t>Karubuguma_2</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1938,7 +1936,7 @@
       </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57">
@@ -1954,7 +1952,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Karubuguma_2</t>
+          <t>Mpanga_Nyakacwamba</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1964,7 +1962,7 @@
       </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58">
@@ -1980,7 +1978,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Mpanga_Nyakacwamba</t>
+          <t>Nyakacwamba_1</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1990,7 +1988,7 @@
       </c>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59">
@@ -2006,7 +2004,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Nyakacwamba_1</t>
+          <t>Nyakacwamba_2</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2016,7 +2014,7 @@
       </c>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60">
@@ -2032,7 +2030,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Nyakacwamba_2</t>
+          <t>Rwengwe_Nyakacwamba</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2042,33 +2040,33 @@
       </c>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Kitagwenda</t>
+          <t>Rakai</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Nyakacwamba</t>
+          <t>Kanoni</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Rwengwe_Nyakacwamba</t>
+          <t>Kamuli</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Pruning saw</t>
+          <t>Mortar and Pestle</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="n">
-        <v>60</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62">
@@ -2089,12 +2087,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Gloves</t>
+          <t>Pruning saw</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63">
@@ -2115,12 +2113,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Mortar and Pestle</t>
+          <t>Rope</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
@@ -2141,12 +2139,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Pruning saw</t>
+          <t>Secateurs</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65">
@@ -2167,12 +2165,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Rope</t>
+          <t>Tarpaulin</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66">
@@ -2193,7 +2191,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Secateurs</t>
+          <t>Watering can</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -2214,17 +2212,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Kamuli</t>
+          <t>Kanoni_Rakai</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Tarpaulin</t>
+          <t>Gloves</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68">
@@ -2240,17 +2238,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Kamuli</t>
+          <t>Kanoni_Rakai</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Watering can</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr"/>
+          <t>Mortar and Pestle</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>40</v>
+      </c>
       <c r="F68" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69">
@@ -2271,12 +2271,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Gloves</t>
+          <t>Pruning saw</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="n">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70">
@@ -2297,14 +2297,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Mortar and Pestle</t>
-        </is>
-      </c>
-      <c r="E70" t="n">
-        <v>40</v>
-      </c>
+          <t>Rope</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr"/>
       <c r="F70" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2325,12 +2323,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Pruning saw</t>
+          <t>Secateurs</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="72">
@@ -2346,17 +2344,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Kanoni_Rakai</t>
+          <t>Kikakata</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Rope</t>
+          <t>Gloves</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73">
@@ -2372,17 +2370,17 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Kanoni_Rakai</t>
+          <t>Kikakata</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Secateurs</t>
+          <t>Pruning saw</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="74">
@@ -2398,17 +2396,17 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Kanoni_Rakai</t>
+          <t>Kikakata</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Tarpaulin</t>
+          <t>Rope</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2424,19 +2422,17 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Kanoni_Rakai</t>
+          <t>Kikakata</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Watering can</t>
-        </is>
-      </c>
-      <c r="E75" t="n">
-        <v>8</v>
-      </c>
+          <t>Secateurs</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
       <c r="F75" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76">
@@ -2452,7 +2448,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Kikakata</t>
+          <t>Mpaama</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2462,7 +2458,7 @@
       </c>
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77">
@@ -2478,7 +2474,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Kikakata</t>
+          <t>Mpaama</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2488,7 +2484,7 @@
       </c>
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="78">
@@ -2504,7 +2500,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Kikakata</t>
+          <t>Mpaama</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2530,7 +2526,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Kikakata</t>
+          <t>Mpaama</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2540,7 +2536,7 @@
       </c>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80">
@@ -2551,22 +2547,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Kanoni</t>
+          <t>Kasensero</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Kikakata</t>
+          <t>Kammengo</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Tarpaulin</t>
+          <t>Pruning saw</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="81">
@@ -2577,22 +2573,22 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Kanoni</t>
+          <t>Kasensero</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Mpaama</t>
+          <t>Kammengo</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Gloves</t>
+          <t>Rope</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
@@ -2603,22 +2599,22 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Kanoni</t>
+          <t>Kasensero</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Mpaama</t>
+          <t>Kammengo</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Pruning saw</t>
+          <t>Secateurs</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83">
@@ -2629,22 +2625,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Kanoni</t>
+          <t>Kasensero</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Mpaama</t>
+          <t>Kammengo</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Rope</t>
+          <t>Tarpaulin</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="84">
@@ -2655,22 +2651,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Kanoni</t>
+          <t>Kasensero</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Mpaama</t>
+          <t>Kisimbanyiriri</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Secateurs</t>
+          <t>Gloves</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85">
@@ -2681,22 +2677,22 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Kanoni</t>
+          <t>Kasensero</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Mpaama</t>
+          <t>Kisimbanyiriri</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Tarpaulin</t>
+          <t>Pruning saw</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="86">
@@ -2712,17 +2708,17 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Kammengo</t>
+          <t>Kisimbanyiriri</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Gloves</t>
+          <t>Rope</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2738,17 +2734,17 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Kammengo</t>
+          <t>Kisimbanyiriri</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Pruning saw</t>
+          <t>Secateurs</t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88">
@@ -2764,17 +2760,17 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Kammengo</t>
+          <t>Kitonezi</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Rope</t>
+          <t>Gloves</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89">
@@ -2790,17 +2786,17 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Kammengo</t>
+          <t>Kitonezi</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Secateurs</t>
+          <t>Pruning saw</t>
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90">
@@ -2816,17 +2812,17 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Kammengo</t>
+          <t>Kitonezi</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Tarpaulin</t>
+          <t>Rope</t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2842,17 +2838,17 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Kisimbanyiriri</t>
+          <t>Kitonezi</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Gloves</t>
+          <t>Secateurs</t>
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="92">
@@ -2868,17 +2864,17 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Kisimbanyiriri</t>
+          <t>Kiwaguzi_A</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Pruning saw</t>
+          <t>Gloves</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="n">
-        <v>60</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93">
@@ -2894,17 +2890,17 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Kisimbanyiriri</t>
+          <t>Kiwaguzi_A</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Rope</t>
+          <t>Pruning saw</t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="94">
@@ -2920,17 +2916,17 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Kisimbanyiriri</t>
+          <t>Kiwaguzi_A</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Secateurs</t>
+          <t>Rope</t>
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -2946,7 +2942,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Kisimbanyiriri</t>
+          <t>Kiwaguzi_A</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2972,7 +2968,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Kitonezi</t>
+          <t>Kiwaguzi_B</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2982,7 +2978,7 @@
       </c>
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97">
@@ -2998,7 +2994,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Kitonezi</t>
+          <t>Kiwaguzi_B</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3008,7 +3004,7 @@
       </c>
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="98">
@@ -3024,7 +3020,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Kitonezi</t>
+          <t>Kiwaguzi_B</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3050,7 +3046,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Kitonezi</t>
+          <t>Kiwaguzi_B</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3060,7 +3056,7 @@
       </c>
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="100">
@@ -3076,17 +3072,17 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Kitonezi</t>
+          <t>Kyaluwakula</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Tarpaulin</t>
+          <t>Gloves</t>
         </is>
       </c>
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101">
@@ -3102,17 +3098,17 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Kiwaguzi_A</t>
+          <t>Kyaluwakula</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Gloves</t>
+          <t>Pruning saw</t>
         </is>
       </c>
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="102">
@@ -3128,17 +3124,17 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Kiwaguzi_A</t>
+          <t>Kyaluwakula</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Pruning saw</t>
+          <t>Rope</t>
         </is>
       </c>
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -3154,17 +3150,17 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Kiwaguzi_A</t>
+          <t>Kyaluwakula</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Rope</t>
+          <t>Secateurs</t>
         </is>
       </c>
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104">
@@ -3180,17 +3176,17 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Kiwaguzi_A</t>
+          <t>Kyengeza_Rakai</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Secateurs</t>
+          <t>Gloves</t>
         </is>
       </c>
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="105">
@@ -3206,17 +3202,17 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Kiwaguzi_A</t>
+          <t>Kyengeza_Rakai</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Tarpaulin</t>
+          <t>Pruning saw</t>
         </is>
       </c>
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="106">
@@ -3232,17 +3228,17 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Kiwaguzi_B</t>
+          <t>Kyengeza_Rakai</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Gloves</t>
+          <t>Rope</t>
         </is>
       </c>
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -3258,12 +3254,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Kiwaguzi_B</t>
+          <t>Kyengeza_Rakai</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Pruning saw</t>
+          <t>Secateurs</t>
         </is>
       </c>
       <c r="E107" t="inlineStr"/>
@@ -3284,17 +3280,17 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Kiwaguzi_B</t>
+          <t>Mikunyu</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Rope</t>
+          <t>Gloves</t>
         </is>
       </c>
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109">
@@ -3310,17 +3306,17 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Kiwaguzi_B</t>
+          <t>Mikunyu</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Secateurs</t>
+          <t>Pruning saw</t>
         </is>
       </c>
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="110">
@@ -3336,17 +3332,17 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Kiwaguzi_B</t>
+          <t>Mikunyu</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Tarpaulin</t>
+          <t>Rope</t>
         </is>
       </c>
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -3362,17 +3358,17 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Kyaluwakula</t>
+          <t>Mikunyu</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Gloves</t>
+          <t>Secateurs</t>
         </is>
       </c>
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="112">
@@ -3388,17 +3384,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Kyaluwakula</t>
+          <t>Nabyala</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Pruning saw</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr"/>
+          <t>Filters</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>6</v>
+      </c>
       <c r="F112" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113">
@@ -3414,17 +3412,17 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Kyaluwakula</t>
+          <t>Nabyala</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Rope</t>
+          <t>Gloves</t>
         </is>
       </c>
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="114">
@@ -3440,17 +3438,19 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Kyaluwakula</t>
+          <t>Nabyala</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Secateurs</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr"/>
+          <t>Mortar and Pestle</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>6</v>
+      </c>
       <c r="F114" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115">
@@ -3466,12 +3466,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Kyaluwakula</t>
+          <t>Nabyala</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Tarpaulin</t>
+          <t>Pruning saw</t>
         </is>
       </c>
       <c r="E115" t="inlineStr"/>
@@ -3492,17 +3492,17 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Kyengeza_Rakai</t>
+          <t>Nabyala</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Gloves</t>
+          <t>Rope</t>
         </is>
       </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -3518,17 +3518,17 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Kyengeza_Rakai</t>
+          <t>Nabyala</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Pruning saw</t>
+          <t>Secateurs</t>
         </is>
       </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
     </row>
     <row r="118">
@@ -3544,17 +3544,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Kyengeza_Rakai</t>
+          <t>Nabyala</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Rope</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr"/>
+          <t>Watering can</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>30</v>
+      </c>
       <c r="F118" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119">
@@ -3570,17 +3572,17 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Kyengeza_Rakai</t>
+          <t>Nakitokolo</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Secateurs</t>
+          <t>Gloves</t>
         </is>
       </c>
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="n">
-        <v>60</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120">
@@ -3596,17 +3598,17 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Kyengeza_Rakai</t>
+          <t>Nakitokolo</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Tarpaulin</t>
+          <t>Pruning saw</t>
         </is>
       </c>
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="121">
@@ -3622,17 +3624,17 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Mikunyu</t>
+          <t>Nakitokolo</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Gloves</t>
+          <t>Rope</t>
         </is>
       </c>
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -3648,17 +3650,17 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Mikunyu</t>
+          <t>Nakitokolo</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Pruning saw</t>
+          <t>Secateurs</t>
         </is>
       </c>
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="123">
@@ -3669,12 +3671,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Kasensero</t>
+          <t>Kyamakanaga</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Mikunyu</t>
+          <t>Kyamakanaga_A</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3682,9 +3684,11 @@
           <t>Rope</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr"/>
+      <c r="E123" t="n">
+        <v>1</v>
+      </c>
       <c r="F123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124">
@@ -3695,22 +3699,22 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Kasensero</t>
+          <t>Kyamakanaga</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Mikunyu</t>
+          <t>Kyamakanaga_B</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Secateurs</t>
+          <t>Rope</t>
         </is>
       </c>
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -3721,445 +3725,21 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Kasensero</t>
+          <t>Kyamakanaga</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Mikunyu</t>
+          <t>Nnongo_A</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Tarpaulin</t>
+          <t>Rope</t>
         </is>
       </c>
       <c r="E125" t="inlineStr"/>
       <c r="F125" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>Rakai</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>Kasensero</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>Nabyala</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>Filters</t>
-        </is>
-      </c>
-      <c r="E126" t="n">
-        <v>6</v>
-      </c>
-      <c r="F126" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>Rakai</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>Kasensero</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>Nabyala</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>Gloves</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr"/>
-      <c r="F127" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>Rakai</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>Kasensero</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>Nabyala</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>Mortar and Pestle</t>
-        </is>
-      </c>
-      <c r="E128" t="n">
-        <v>6</v>
-      </c>
-      <c r="F128" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>Rakai</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>Kasensero</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>Nabyala</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>Pruning saw</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr"/>
-      <c r="F129" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>Rakai</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>Kasensero</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>Nabyala</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>Rope</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr"/>
-      <c r="F130" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>Rakai</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>Kasensero</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>Nabyala</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>Secateurs</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr"/>
-      <c r="F131" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>Rakai</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>Kasensero</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>Nabyala</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>Tarpaulin</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr"/>
-      <c r="F132" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>Rakai</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>Kasensero</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>Nabyala</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>Watering can</t>
-        </is>
-      </c>
-      <c r="E133" t="n">
-        <v>30</v>
-      </c>
-      <c r="F133" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>Rakai</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>Kasensero</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>Nakitokolo</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>Gloves</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr"/>
-      <c r="F134" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>Rakai</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Kasensero</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>Nakitokolo</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>Pruning saw</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr"/>
-      <c r="F135" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>Rakai</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>Kasensero</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>Nakitokolo</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>Rope</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr"/>
-      <c r="F136" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>Rakai</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>Kasensero</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>Nakitokolo</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>Secateurs</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr"/>
-      <c r="F137" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>Rakai</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>Kasensero</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>Nakitokolo</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>Tarpaulin</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr"/>
-      <c r="F138" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>Rakai</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Kyamakanaga</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>Kyamakanaga_A</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>Rope</t>
-        </is>
-      </c>
-      <c r="E139" t="n">
-        <v>1</v>
-      </c>
-      <c r="F139" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>Rakai</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>Kyamakanaga</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>Kyamakanaga_B</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>Rope</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr"/>
-      <c r="F140" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>Rakai</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>Kyamakanaga</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>Nnongo_A</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>Rope</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr"/>
-      <c r="F141" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Quality reports shared/tools difference.xlsx
+++ b/Quality reports shared/tools difference.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="74">
   <si>
     <t>district_name</t>
   </si>
@@ -593,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F125"/>
+  <dimension ref="A1:F93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1716,10 +1716,10 @@
         <v>41</v>
       </c>
       <c r="D62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F62">
-        <v>40</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1733,10 +1733,10 @@
         <v>41</v>
       </c>
       <c r="D63" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="F63">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1747,13 +1747,16 @@
         <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D64" t="s">
-        <v>69</v>
+        <v>66</v>
+      </c>
+      <c r="E64">
+        <v>40</v>
       </c>
       <c r="F64">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1764,13 +1767,13 @@
         <v>12</v>
       </c>
       <c r="C65" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D65" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="F65">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1781,13 +1784,13 @@
         <v>12</v>
       </c>
       <c r="C66" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D66" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="F66">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1798,13 +1801,13 @@
         <v>12</v>
       </c>
       <c r="C67" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D67" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F67">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1812,19 +1815,16 @@
         <v>7</v>
       </c>
       <c r="B68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C68" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D68" t="s">
-        <v>66</v>
-      </c>
-      <c r="E68">
+        <v>58</v>
+      </c>
+      <c r="F68">
         <v>40</v>
-      </c>
-      <c r="F68">
-        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1832,16 +1832,16 @@
         <v>7</v>
       </c>
       <c r="B69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C69" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D69" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F69">
-        <v>80</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1849,16 +1849,16 @@
         <v>7</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C70" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D70" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1866,16 +1866,16 @@
         <v>7</v>
       </c>
       <c r="B71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C71" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D71" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F71">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1883,16 +1883,16 @@
         <v>7</v>
       </c>
       <c r="B72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C72" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D72" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F72">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1900,16 +1900,16 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C73" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D73" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F73">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1917,16 +1917,16 @@
         <v>7</v>
       </c>
       <c r="B74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C74" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D74" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1934,16 +1934,16 @@
         <v>7</v>
       </c>
       <c r="B75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C75" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D75" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F75">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1951,16 +1951,16 @@
         <v>7</v>
       </c>
       <c r="B76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C76" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D76" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F76">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1968,16 +1968,16 @@
         <v>7</v>
       </c>
       <c r="B77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C77" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D77" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F77">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1985,16 +1985,16 @@
         <v>7</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C78" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D78" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2002,16 +2002,16 @@
         <v>7</v>
       </c>
       <c r="B79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C79" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D79" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F79">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2022,13 +2022,13 @@
         <v>13</v>
       </c>
       <c r="C80" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D80" t="s">
         <v>58</v>
       </c>
       <c r="F80">
-        <v>40</v>
+        <v>120</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2039,13 +2039,13 @@
         <v>13</v>
       </c>
       <c r="C81" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D81" t="s">
         <v>59</v>
       </c>
       <c r="F81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2056,13 +2056,13 @@
         <v>13</v>
       </c>
       <c r="C82" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D82" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="F82">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2073,13 +2073,13 @@
         <v>13</v>
       </c>
       <c r="C83" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D83" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="F83">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2090,13 +2090,16 @@
         <v>13</v>
       </c>
       <c r="C84" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D84" t="s">
-        <v>63</v>
+        <v>61</v>
+      </c>
+      <c r="E84">
+        <v>6</v>
       </c>
       <c r="F84">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2107,13 +2110,16 @@
         <v>13</v>
       </c>
       <c r="C85" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D85" t="s">
-        <v>58</v>
+        <v>66</v>
+      </c>
+      <c r="E85">
+        <v>6</v>
       </c>
       <c r="F85">
-        <v>60</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2124,13 +2130,13 @@
         <v>13</v>
       </c>
       <c r="C86" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D86" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2141,13 +2147,13 @@
         <v>13</v>
       </c>
       <c r="C87" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D87" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F87">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2158,10 +2164,13 @@
         <v>13</v>
       </c>
       <c r="C88" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D88" t="s">
-        <v>63</v>
+        <v>73</v>
+      </c>
+      <c r="E88">
+        <v>30</v>
       </c>
       <c r="F88">
         <v>20</v>
@@ -2175,13 +2184,13 @@
         <v>13</v>
       </c>
       <c r="C89" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D89" t="s">
         <v>58</v>
       </c>
       <c r="F89">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2192,7 +2201,7 @@
         <v>13</v>
       </c>
       <c r="C90" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D90" t="s">
         <v>59</v>
@@ -2206,16 +2215,19 @@
         <v>7</v>
       </c>
       <c r="B91" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C91" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D91" t="s">
-        <v>69</v>
+        <v>59</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
       </c>
       <c r="F91">
-        <v>50</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2223,16 +2235,16 @@
         <v>7</v>
       </c>
       <c r="B92" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C92" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D92" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F92">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2240,571 +2252,15 @@
         <v>7</v>
       </c>
       <c r="B93" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C93" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D93" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F93">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" t="s">
-        <v>7</v>
-      </c>
-      <c r="B94" t="s">
-        <v>13</v>
-      </c>
-      <c r="C94" t="s">
-        <v>48</v>
-      </c>
-      <c r="D94" t="s">
-        <v>59</v>
-      </c>
-      <c r="F94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" t="s">
-        <v>7</v>
-      </c>
-      <c r="B95" t="s">
-        <v>13</v>
-      </c>
-      <c r="C95" t="s">
-        <v>48</v>
-      </c>
-      <c r="D95" t="s">
-        <v>72</v>
-      </c>
-      <c r="F95">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96" t="s">
-        <v>7</v>
-      </c>
-      <c r="B96" t="s">
-        <v>13</v>
-      </c>
-      <c r="C96" t="s">
-        <v>49</v>
-      </c>
-      <c r="D96" t="s">
-        <v>63</v>
-      </c>
-      <c r="F96">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97" t="s">
-        <v>7</v>
-      </c>
-      <c r="B97" t="s">
-        <v>13</v>
-      </c>
-      <c r="C97" t="s">
-        <v>49</v>
-      </c>
-      <c r="D97" t="s">
-        <v>58</v>
-      </c>
-      <c r="F97">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98" t="s">
-        <v>7</v>
-      </c>
-      <c r="B98" t="s">
-        <v>13</v>
-      </c>
-      <c r="C98" t="s">
-        <v>49</v>
-      </c>
-      <c r="D98" t="s">
-        <v>59</v>
-      </c>
-      <c r="F98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" t="s">
-        <v>7</v>
-      </c>
-      <c r="B99" t="s">
-        <v>13</v>
-      </c>
-      <c r="C99" t="s">
-        <v>49</v>
-      </c>
-      <c r="D99" t="s">
-        <v>69</v>
-      </c>
-      <c r="F99">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100" t="s">
-        <v>7</v>
-      </c>
-      <c r="B100" t="s">
-        <v>13</v>
-      </c>
-      <c r="C100" t="s">
-        <v>50</v>
-      </c>
-      <c r="D100" t="s">
-        <v>63</v>
-      </c>
-      <c r="F100">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101" t="s">
-        <v>7</v>
-      </c>
-      <c r="B101" t="s">
-        <v>13</v>
-      </c>
-      <c r="C101" t="s">
-        <v>50</v>
-      </c>
-      <c r="D101" t="s">
-        <v>58</v>
-      </c>
-      <c r="F101">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102" t="s">
-        <v>7</v>
-      </c>
-      <c r="B102" t="s">
-        <v>13</v>
-      </c>
-      <c r="C102" t="s">
-        <v>50</v>
-      </c>
-      <c r="D102" t="s">
-        <v>59</v>
-      </c>
-      <c r="F102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103" t="s">
-        <v>7</v>
-      </c>
-      <c r="B103" t="s">
-        <v>13</v>
-      </c>
-      <c r="C103" t="s">
-        <v>50</v>
-      </c>
-      <c r="D103" t="s">
-        <v>69</v>
-      </c>
-      <c r="F103">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104" t="s">
-        <v>7</v>
-      </c>
-      <c r="B104" t="s">
-        <v>13</v>
-      </c>
-      <c r="C104" t="s">
-        <v>51</v>
-      </c>
-      <c r="D104" t="s">
-        <v>63</v>
-      </c>
-      <c r="F104">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105" t="s">
-        <v>7</v>
-      </c>
-      <c r="B105" t="s">
-        <v>13</v>
-      </c>
-      <c r="C105" t="s">
-        <v>51</v>
-      </c>
-      <c r="D105" t="s">
-        <v>58</v>
-      </c>
-      <c r="F105">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106" t="s">
-        <v>7</v>
-      </c>
-      <c r="B106" t="s">
-        <v>13</v>
-      </c>
-      <c r="C106" t="s">
-        <v>51</v>
-      </c>
-      <c r="D106" t="s">
-        <v>59</v>
-      </c>
-      <c r="F106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107" t="s">
-        <v>7</v>
-      </c>
-      <c r="B107" t="s">
-        <v>13</v>
-      </c>
-      <c r="C107" t="s">
-        <v>51</v>
-      </c>
-      <c r="D107" t="s">
-        <v>69</v>
-      </c>
-      <c r="F107">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108" t="s">
-        <v>7</v>
-      </c>
-      <c r="B108" t="s">
-        <v>13</v>
-      </c>
-      <c r="C108" t="s">
-        <v>52</v>
-      </c>
-      <c r="D108" t="s">
-        <v>63</v>
-      </c>
-      <c r="F108">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109" t="s">
-        <v>7</v>
-      </c>
-      <c r="B109" t="s">
-        <v>13</v>
-      </c>
-      <c r="C109" t="s">
-        <v>52</v>
-      </c>
-      <c r="D109" t="s">
-        <v>58</v>
-      </c>
-      <c r="F109">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110" t="s">
-        <v>7</v>
-      </c>
-      <c r="B110" t="s">
-        <v>13</v>
-      </c>
-      <c r="C110" t="s">
-        <v>52</v>
-      </c>
-      <c r="D110" t="s">
-        <v>59</v>
-      </c>
-      <c r="F110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111" t="s">
-        <v>7</v>
-      </c>
-      <c r="B111" t="s">
-        <v>13</v>
-      </c>
-      <c r="C111" t="s">
-        <v>52</v>
-      </c>
-      <c r="D111" t="s">
-        <v>69</v>
-      </c>
-      <c r="F111">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112" t="s">
-        <v>7</v>
-      </c>
-      <c r="B112" t="s">
-        <v>13</v>
-      </c>
-      <c r="C112" t="s">
-        <v>53</v>
-      </c>
-      <c r="D112" t="s">
-        <v>61</v>
-      </c>
-      <c r="E112">
-        <v>6</v>
-      </c>
-      <c r="F112">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113" t="s">
-        <v>7</v>
-      </c>
-      <c r="B113" t="s">
-        <v>13</v>
-      </c>
-      <c r="C113" t="s">
-        <v>53</v>
-      </c>
-      <c r="D113" t="s">
-        <v>63</v>
-      </c>
-      <c r="F113">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114" t="s">
-        <v>7</v>
-      </c>
-      <c r="B114" t="s">
-        <v>13</v>
-      </c>
-      <c r="C114" t="s">
-        <v>53</v>
-      </c>
-      <c r="D114" t="s">
-        <v>66</v>
-      </c>
-      <c r="E114">
-        <v>6</v>
-      </c>
-      <c r="F114">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115" t="s">
-        <v>7</v>
-      </c>
-      <c r="B115" t="s">
-        <v>13</v>
-      </c>
-      <c r="C115" t="s">
-        <v>53</v>
-      </c>
-      <c r="D115" t="s">
-        <v>58</v>
-      </c>
-      <c r="F115">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116" t="s">
-        <v>7</v>
-      </c>
-      <c r="B116" t="s">
-        <v>13</v>
-      </c>
-      <c r="C116" t="s">
-        <v>53</v>
-      </c>
-      <c r="D116" t="s">
-        <v>59</v>
-      </c>
-      <c r="F116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117" t="s">
-        <v>7</v>
-      </c>
-      <c r="B117" t="s">
-        <v>13</v>
-      </c>
-      <c r="C117" t="s">
-        <v>53</v>
-      </c>
-      <c r="D117" t="s">
-        <v>69</v>
-      </c>
-      <c r="F117">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118" t="s">
-        <v>7</v>
-      </c>
-      <c r="B118" t="s">
-        <v>13</v>
-      </c>
-      <c r="C118" t="s">
-        <v>53</v>
-      </c>
-      <c r="D118" t="s">
-        <v>73</v>
-      </c>
-      <c r="E118">
-        <v>30</v>
-      </c>
-      <c r="F118">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119" t="s">
-        <v>7</v>
-      </c>
-      <c r="B119" t="s">
-        <v>13</v>
-      </c>
-      <c r="C119" t="s">
-        <v>54</v>
-      </c>
-      <c r="D119" t="s">
-        <v>63</v>
-      </c>
-      <c r="F119">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120" t="s">
-        <v>7</v>
-      </c>
-      <c r="B120" t="s">
-        <v>13</v>
-      </c>
-      <c r="C120" t="s">
-        <v>54</v>
-      </c>
-      <c r="D120" t="s">
-        <v>58</v>
-      </c>
-      <c r="F120">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121" t="s">
-        <v>7</v>
-      </c>
-      <c r="B121" t="s">
-        <v>13</v>
-      </c>
-      <c r="C121" t="s">
-        <v>54</v>
-      </c>
-      <c r="D121" t="s">
-        <v>59</v>
-      </c>
-      <c r="F121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122" t="s">
-        <v>7</v>
-      </c>
-      <c r="B122" t="s">
-        <v>13</v>
-      </c>
-      <c r="C122" t="s">
-        <v>54</v>
-      </c>
-      <c r="D122" t="s">
-        <v>69</v>
-      </c>
-      <c r="F122">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123" t="s">
-        <v>7</v>
-      </c>
-      <c r="B123" t="s">
-        <v>14</v>
-      </c>
-      <c r="C123" t="s">
-        <v>55</v>
-      </c>
-      <c r="D123" t="s">
-        <v>59</v>
-      </c>
-      <c r="E123">
-        <v>1</v>
-      </c>
-      <c r="F123">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124" t="s">
-        <v>7</v>
-      </c>
-      <c r="B124" t="s">
-        <v>14</v>
-      </c>
-      <c r="C124" t="s">
-        <v>56</v>
-      </c>
-      <c r="D124" t="s">
-        <v>59</v>
-      </c>
-      <c r="F124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125" t="s">
-        <v>7</v>
-      </c>
-      <c r="B125" t="s">
-        <v>14</v>
-      </c>
-      <c r="C125" t="s">
-        <v>57</v>
-      </c>
-      <c r="D125" t="s">
-        <v>59</v>
-      </c>
-      <c r="F125">
         <v>0</v>
       </c>
     </row>

--- a/Quality reports shared/tools difference.xlsx
+++ b/Quality reports shared/tools difference.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="74">
   <si>
     <t>district_name</t>
   </si>
@@ -593,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F93"/>
+  <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1730,13 +1730,16 @@
         <v>12</v>
       </c>
       <c r="C63" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D63" t="s">
-        <v>73</v>
+        <v>66</v>
+      </c>
+      <c r="E63">
+        <v>40</v>
       </c>
       <c r="F63">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1750,13 +1753,10 @@
         <v>42</v>
       </c>
       <c r="D64" t="s">
-        <v>66</v>
-      </c>
-      <c r="E64">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="F64">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1767,7 +1767,7 @@
         <v>12</v>
       </c>
       <c r="C65" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D65" t="s">
         <v>59</v>
@@ -1784,7 +1784,7 @@
         <v>12</v>
       </c>
       <c r="C66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D66" t="s">
         <v>59</v>
@@ -1798,16 +1798,16 @@
         <v>7</v>
       </c>
       <c r="B67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D67" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1821,10 +1821,10 @@
         <v>45</v>
       </c>
       <c r="D68" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F68">
-        <v>40</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1835,13 +1835,13 @@
         <v>13</v>
       </c>
       <c r="C69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D69" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F69">
-        <v>2</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1855,10 +1855,10 @@
         <v>46</v>
       </c>
       <c r="D70" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F70">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1869,13 +1869,13 @@
         <v>13</v>
       </c>
       <c r="C71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D71" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1889,10 +1889,10 @@
         <v>47</v>
       </c>
       <c r="D72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F72">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1903,13 +1903,13 @@
         <v>13</v>
       </c>
       <c r="C73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D73" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1923,10 +1923,10 @@
         <v>48</v>
       </c>
       <c r="D74" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F74">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1937,13 +1937,13 @@
         <v>13</v>
       </c>
       <c r="C75" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D75" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1957,10 +1957,10 @@
         <v>49</v>
       </c>
       <c r="D76" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F76">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1971,13 +1971,13 @@
         <v>13</v>
       </c>
       <c r="C77" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D77" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1991,10 +1991,10 @@
         <v>50</v>
       </c>
       <c r="D78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F78">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2005,13 +2005,13 @@
         <v>13</v>
       </c>
       <c r="C79" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D79" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2025,10 +2025,10 @@
         <v>51</v>
       </c>
       <c r="D80" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F80">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2039,13 +2039,13 @@
         <v>13</v>
       </c>
       <c r="C81" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D81" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2059,10 +2059,10 @@
         <v>52</v>
       </c>
       <c r="D82" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F82">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2073,13 +2073,16 @@
         <v>13</v>
       </c>
       <c r="C83" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D83" t="s">
-        <v>59</v>
+        <v>61</v>
+      </c>
+      <c r="E83">
+        <v>6</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2093,7 +2096,7 @@
         <v>53</v>
       </c>
       <c r="D84" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E84">
         <v>6</v>
@@ -2113,13 +2116,10 @@
         <v>53</v>
       </c>
       <c r="D85" t="s">
-        <v>66</v>
-      </c>
-      <c r="E85">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="F85">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2133,10 +2133,10 @@
         <v>53</v>
       </c>
       <c r="D86" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F86">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2150,10 +2150,13 @@
         <v>53</v>
       </c>
       <c r="D87" t="s">
-        <v>59</v>
+        <v>73</v>
+      </c>
+      <c r="E87">
+        <v>30</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2164,16 +2167,13 @@
         <v>13</v>
       </c>
       <c r="C88" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D88" t="s">
-        <v>73</v>
-      </c>
-      <c r="E88">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="F88">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2187,10 +2187,10 @@
         <v>54</v>
       </c>
       <c r="D89" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F89">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2198,16 +2198,19 @@
         <v>7</v>
       </c>
       <c r="B90" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C90" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D90" t="s">
         <v>59</v>
       </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
       <c r="F90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2218,16 +2221,13 @@
         <v>14</v>
       </c>
       <c r="C91" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D91" t="s">
         <v>59</v>
       </c>
-      <c r="E91">
-        <v>1</v>
-      </c>
       <c r="F91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2238,29 +2238,12 @@
         <v>14</v>
       </c>
       <c r="C92" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D92" t="s">
         <v>59</v>
       </c>
       <c r="F92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93" t="s">
-        <v>7</v>
-      </c>
-      <c r="B93" t="s">
-        <v>14</v>
-      </c>
-      <c r="C93" t="s">
-        <v>57</v>
-      </c>
-      <c r="D93" t="s">
-        <v>59</v>
-      </c>
-      <c r="F93">
         <v>0</v>
       </c>
     </row>

--- a/Quality reports shared/tools difference.xlsx
+++ b/Quality reports shared/tools difference.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="72">
   <si>
     <t>district_name</t>
   </si>
@@ -139,9 +139,6 @@
     <t>Rwengwe_Nyakacwamba</t>
   </si>
   <si>
-    <t>Kamuli</t>
-  </si>
-  <si>
     <t>Kanoni_Rakai</t>
   </si>
   <si>
@@ -179,9 +176,6 @@
   </si>
   <si>
     <t>Nakitokolo</t>
-  </si>
-  <si>
-    <t>Kyamakanaga_A</t>
   </si>
   <si>
     <t>Kyamakanaga_B</t>
@@ -593,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F92"/>
+  <dimension ref="A1:F88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -630,7 +624,7 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F2">
         <v>60</v>
@@ -647,7 +641,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -667,7 +661,7 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F4">
         <v>40</v>
@@ -684,7 +678,7 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -704,7 +698,7 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E6">
         <v>7</v>
@@ -724,7 +718,7 @@
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E7">
         <v>7</v>
@@ -744,7 +738,7 @@
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -764,7 +758,7 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E9">
         <v>14</v>
@@ -784,7 +778,7 @@
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E10">
         <v>14</v>
@@ -804,7 +798,7 @@
         <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E11">
         <v>14</v>
@@ -824,7 +818,7 @@
         <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E12">
         <v>7</v>
@@ -844,7 +838,7 @@
         <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E13">
         <v>7</v>
@@ -864,7 +858,7 @@
         <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E14">
         <v>7</v>
@@ -884,7 +878,7 @@
         <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F15">
         <v>80</v>
@@ -901,7 +895,7 @@
         <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -921,7 +915,7 @@
         <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E17">
         <v>35</v>
@@ -941,7 +935,7 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E18">
         <v>14</v>
@@ -961,7 +955,7 @@
         <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E19">
         <v>7</v>
@@ -981,7 +975,7 @@
         <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E20">
         <v>70</v>
@@ -1001,7 +995,7 @@
         <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E21">
         <v>35</v>
@@ -1021,7 +1015,7 @@
         <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F22">
         <v>50</v>
@@ -1038,7 +1032,7 @@
         <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1058,7 +1052,7 @@
         <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F24">
         <v>30</v>
@@ -1075,7 +1069,7 @@
         <v>19</v>
       </c>
       <c r="D25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1095,7 +1089,7 @@
         <v>20</v>
       </c>
       <c r="D26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F26">
         <v>20</v>
@@ -1112,7 +1106,7 @@
         <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F27">
         <v>2</v>
@@ -1129,7 +1123,7 @@
         <v>20</v>
       </c>
       <c r="D28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E28">
         <v>2</v>
@@ -1149,7 +1143,7 @@
         <v>21</v>
       </c>
       <c r="D29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F29">
         <v>30</v>
@@ -1166,7 +1160,7 @@
         <v>21</v>
       </c>
       <c r="D30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1183,7 +1177,7 @@
         <v>22</v>
       </c>
       <c r="D31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F31">
         <v>30</v>
@@ -1200,7 +1194,7 @@
         <v>22</v>
       </c>
       <c r="D32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1217,7 +1211,7 @@
         <v>23</v>
       </c>
       <c r="D33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F33">
         <v>30</v>
@@ -1234,7 +1228,7 @@
         <v>23</v>
       </c>
       <c r="D34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -1254,7 +1248,7 @@
         <v>24</v>
       </c>
       <c r="D35" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F35">
         <v>30</v>
@@ -1271,7 +1265,7 @@
         <v>24</v>
       </c>
       <c r="D36" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -1288,7 +1282,7 @@
         <v>25</v>
       </c>
       <c r="D37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F37">
         <v>20</v>
@@ -1305,7 +1299,7 @@
         <v>26</v>
       </c>
       <c r="D38" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F38">
         <v>20</v>
@@ -1322,7 +1316,7 @@
         <v>26</v>
       </c>
       <c r="D39" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1339,7 +1333,7 @@
         <v>27</v>
       </c>
       <c r="D40" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F40">
         <v>30</v>
@@ -1356,7 +1350,7 @@
         <v>27</v>
       </c>
       <c r="D41" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -1373,7 +1367,7 @@
         <v>28</v>
       </c>
       <c r="D42" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F42">
         <v>30</v>
@@ -1390,7 +1384,7 @@
         <v>28</v>
       </c>
       <c r="D43" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -1407,7 +1401,7 @@
         <v>29</v>
       </c>
       <c r="D44" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F44">
         <v>20</v>
@@ -1424,7 +1418,7 @@
         <v>29</v>
       </c>
       <c r="D45" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -1441,7 +1435,7 @@
         <v>30</v>
       </c>
       <c r="D46" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F46">
         <v>30</v>
@@ -1458,7 +1452,7 @@
         <v>30</v>
       </c>
       <c r="D47" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -1475,7 +1469,7 @@
         <v>31</v>
       </c>
       <c r="D48" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F48">
         <v>30</v>
@@ -1492,7 +1486,7 @@
         <v>31</v>
       </c>
       <c r="D49" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -1509,7 +1503,7 @@
         <v>32</v>
       </c>
       <c r="D50" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F50">
         <v>30</v>
@@ -1526,7 +1520,7 @@
         <v>32</v>
       </c>
       <c r="D51" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -1543,7 +1537,7 @@
         <v>33</v>
       </c>
       <c r="D52" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F52">
         <v>50</v>
@@ -1560,7 +1554,7 @@
         <v>33</v>
       </c>
       <c r="D53" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1580,7 +1574,7 @@
         <v>34</v>
       </c>
       <c r="D54" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F54">
         <v>50</v>
@@ -1597,7 +1591,7 @@
         <v>35</v>
       </c>
       <c r="D55" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F55">
         <v>40</v>
@@ -1614,7 +1608,7 @@
         <v>36</v>
       </c>
       <c r="D56" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F56">
         <v>90</v>
@@ -1631,7 +1625,7 @@
         <v>37</v>
       </c>
       <c r="D57" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F57">
         <v>40</v>
@@ -1648,7 +1642,7 @@
         <v>38</v>
       </c>
       <c r="D58" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F58">
         <v>50</v>
@@ -1665,7 +1659,7 @@
         <v>39</v>
       </c>
       <c r="D59" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F59">
         <v>40</v>
@@ -1682,7 +1676,7 @@
         <v>40</v>
       </c>
       <c r="D60" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F60">
         <v>60</v>
@@ -1699,10 +1693,13 @@
         <v>41</v>
       </c>
       <c r="D61" t="s">
-        <v>66</v>
+        <v>64</v>
+      </c>
+      <c r="E61">
+        <v>40</v>
       </c>
       <c r="F61">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1716,10 +1713,10 @@
         <v>41</v>
       </c>
       <c r="D62" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1733,13 +1730,10 @@
         <v>42</v>
       </c>
       <c r="D63" t="s">
-        <v>66</v>
-      </c>
-      <c r="E63">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="F63">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1750,10 +1744,10 @@
         <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D64" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -1764,16 +1758,16 @@
         <v>7</v>
       </c>
       <c r="B65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C65" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D65" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1781,16 +1775,16 @@
         <v>7</v>
       </c>
       <c r="B66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D66" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1804,10 +1798,10 @@
         <v>45</v>
       </c>
       <c r="D67" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F67">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1818,13 +1812,13 @@
         <v>13</v>
       </c>
       <c r="C68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D68" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F68">
-        <v>2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1838,10 +1832,10 @@
         <v>46</v>
       </c>
       <c r="D69" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F69">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1852,13 +1846,13 @@
         <v>13</v>
       </c>
       <c r="C70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D70" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1872,10 +1866,10 @@
         <v>47</v>
       </c>
       <c r="D71" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F71">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1886,13 +1880,13 @@
         <v>13</v>
       </c>
       <c r="C72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D72" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1906,10 +1900,10 @@
         <v>48</v>
       </c>
       <c r="D73" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F73">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1920,13 +1914,13 @@
         <v>13</v>
       </c>
       <c r="C74" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D74" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1940,10 +1934,10 @@
         <v>49</v>
       </c>
       <c r="D75" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F75">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1954,13 +1948,13 @@
         <v>13</v>
       </c>
       <c r="C76" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D76" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1974,10 +1968,10 @@
         <v>50</v>
       </c>
       <c r="D77" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F77">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1988,13 +1982,13 @@
         <v>13</v>
       </c>
       <c r="C78" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D78" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2008,10 +2002,10 @@
         <v>51</v>
       </c>
       <c r="D79" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F79">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2022,13 +2016,16 @@
         <v>13</v>
       </c>
       <c r="C80" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D80" t="s">
         <v>59</v>
       </c>
+      <c r="E80">
+        <v>6</v>
+      </c>
       <c r="F80">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2042,10 +2039,13 @@
         <v>52</v>
       </c>
       <c r="D81" t="s">
-        <v>58</v>
+        <v>64</v>
+      </c>
+      <c r="E81">
+        <v>6</v>
       </c>
       <c r="F81">
-        <v>60</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2059,10 +2059,10 @@
         <v>52</v>
       </c>
       <c r="D82" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2073,16 +2073,13 @@
         <v>13</v>
       </c>
       <c r="C83" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D83" t="s">
-        <v>61</v>
-      </c>
-      <c r="E83">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="F83">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2093,16 +2090,16 @@
         <v>13</v>
       </c>
       <c r="C84" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D84" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E84">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="F84">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2116,10 +2113,10 @@
         <v>53</v>
       </c>
       <c r="D85" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F85">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2133,7 +2130,7 @@
         <v>53</v>
       </c>
       <c r="D86" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -2144,19 +2141,16 @@
         <v>7</v>
       </c>
       <c r="B87" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C87" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D87" t="s">
-        <v>73</v>
-      </c>
-      <c r="E87">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="F87">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2164,86 +2158,15 @@
         <v>7</v>
       </c>
       <c r="B88" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C88" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D88" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F88">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" t="s">
-        <v>7</v>
-      </c>
-      <c r="B89" t="s">
-        <v>13</v>
-      </c>
-      <c r="C89" t="s">
-        <v>54</v>
-      </c>
-      <c r="D89" t="s">
-        <v>59</v>
-      </c>
-      <c r="F89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" t="s">
-        <v>7</v>
-      </c>
-      <c r="B90" t="s">
-        <v>14</v>
-      </c>
-      <c r="C90" t="s">
-        <v>55</v>
-      </c>
-      <c r="D90" t="s">
-        <v>59</v>
-      </c>
-      <c r="E90">
-        <v>1</v>
-      </c>
-      <c r="F90">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91" t="s">
-        <v>7</v>
-      </c>
-      <c r="B91" t="s">
-        <v>14</v>
-      </c>
-      <c r="C91" t="s">
-        <v>56</v>
-      </c>
-      <c r="D91" t="s">
-        <v>59</v>
-      </c>
-      <c r="F91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92" t="s">
-        <v>7</v>
-      </c>
-      <c r="B92" t="s">
-        <v>14</v>
-      </c>
-      <c r="C92" t="s">
-        <v>57</v>
-      </c>
-      <c r="D92" t="s">
-        <v>59</v>
-      </c>
-      <c r="F92">
         <v>0</v>
       </c>
     </row>

--- a/Quality reports shared/tools difference.xlsx
+++ b/Quality reports shared/tools difference.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="72">
   <si>
     <t>district_name</t>
   </si>
@@ -587,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F88"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1120,16 +1120,13 @@
         <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="F28">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1143,10 +1140,10 @@
         <v>21</v>
       </c>
       <c r="D29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F29">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1157,13 +1154,13 @@
         <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1177,10 +1174,10 @@
         <v>22</v>
       </c>
       <c r="D31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F31">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1191,13 +1188,13 @@
         <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1211,10 +1208,13 @@
         <v>23</v>
       </c>
       <c r="D33" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1225,16 +1225,13 @@
         <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D34" t="s">
-        <v>57</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1248,10 +1245,10 @@
         <v>24</v>
       </c>
       <c r="D35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F35">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1259,16 +1256,16 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1279,7 +1276,7 @@
         <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D37" t="s">
         <v>56</v>
@@ -1299,10 +1296,10 @@
         <v>26</v>
       </c>
       <c r="D38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F38">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1313,13 +1310,13 @@
         <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1333,10 +1330,10 @@
         <v>27</v>
       </c>
       <c r="D40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F40">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1347,13 +1344,13 @@
         <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1367,10 +1364,10 @@
         <v>28</v>
       </c>
       <c r="D42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F42">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1381,13 +1378,13 @@
         <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1401,10 +1398,10 @@
         <v>29</v>
       </c>
       <c r="D44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F44">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1415,13 +1412,13 @@
         <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1435,10 +1432,10 @@
         <v>30</v>
       </c>
       <c r="D46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F46">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1449,13 +1446,13 @@
         <v>10</v>
       </c>
       <c r="C47" t="s">
+        <v>31</v>
+      </c>
+      <c r="D47" t="s">
+        <v>56</v>
+      </c>
+      <c r="F47">
         <v>30</v>
-      </c>
-      <c r="D47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1469,10 +1466,10 @@
         <v>31</v>
       </c>
       <c r="D48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F48">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1483,13 +1480,13 @@
         <v>10</v>
       </c>
       <c r="C49" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1503,10 +1500,10 @@
         <v>32</v>
       </c>
       <c r="D50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F50">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1514,16 +1511,16 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1537,10 +1534,13 @@
         <v>33</v>
       </c>
       <c r="D52" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>50</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1551,16 +1551,13 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D53" t="s">
-        <v>57</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="F53">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1571,13 +1568,13 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D54" t="s">
         <v>56</v>
       </c>
       <c r="F54">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1588,13 +1585,13 @@
         <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D55" t="s">
         <v>56</v>
       </c>
       <c r="F55">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1605,13 +1602,13 @@
         <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D56" t="s">
         <v>56</v>
       </c>
       <c r="F56">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1622,13 +1619,13 @@
         <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D57" t="s">
         <v>56</v>
       </c>
       <c r="F57">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1639,13 +1636,13 @@
         <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D58" t="s">
         <v>56</v>
       </c>
       <c r="F58">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1656,30 +1653,30 @@
         <v>11</v>
       </c>
       <c r="C59" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D59" t="s">
         <v>56</v>
       </c>
       <c r="F59">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C60" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D60" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F60">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1690,16 +1687,13 @@
         <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D61" t="s">
-        <v>64</v>
-      </c>
-      <c r="E61">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="F61">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1710,7 +1704,7 @@
         <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D62" t="s">
         <v>57</v>
@@ -1724,16 +1718,16 @@
         <v>7</v>
       </c>
       <c r="B63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C63" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D63" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1741,16 +1735,16 @@
         <v>7</v>
       </c>
       <c r="B64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C64" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D64" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1761,13 +1755,13 @@
         <v>13</v>
       </c>
       <c r="C65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D65" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F65">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1778,13 +1772,13 @@
         <v>13</v>
       </c>
       <c r="C66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D66" t="s">
         <v>56</v>
       </c>
       <c r="F66">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1795,7 +1789,7 @@
         <v>13</v>
       </c>
       <c r="C67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D67" t="s">
         <v>57</v>
@@ -1812,13 +1806,13 @@
         <v>13</v>
       </c>
       <c r="C68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D68" t="s">
         <v>56</v>
       </c>
       <c r="F68">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1829,7 +1823,7 @@
         <v>13</v>
       </c>
       <c r="C69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D69" t="s">
         <v>57</v>
@@ -1846,7 +1840,7 @@
         <v>13</v>
       </c>
       <c r="C70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D70" t="s">
         <v>56</v>
@@ -1863,7 +1857,7 @@
         <v>13</v>
       </c>
       <c r="C71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D71" t="s">
         <v>57</v>
@@ -1880,13 +1874,13 @@
         <v>13</v>
       </c>
       <c r="C72" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D72" t="s">
         <v>56</v>
       </c>
       <c r="F72">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1897,7 +1891,7 @@
         <v>13</v>
       </c>
       <c r="C73" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D73" t="s">
         <v>57</v>
@@ -1914,13 +1908,13 @@
         <v>13</v>
       </c>
       <c r="C74" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D74" t="s">
         <v>56</v>
       </c>
       <c r="F74">
-        <v>40</v>
+        <v>120</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1931,7 +1925,7 @@
         <v>13</v>
       </c>
       <c r="C75" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D75" t="s">
         <v>57</v>
@@ -1948,13 +1942,13 @@
         <v>13</v>
       </c>
       <c r="C76" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D76" t="s">
         <v>56</v>
       </c>
       <c r="F76">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1965,7 +1959,7 @@
         <v>13</v>
       </c>
       <c r="C77" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D77" t="s">
         <v>57</v>
@@ -1982,13 +1976,13 @@
         <v>13</v>
       </c>
       <c r="C78" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D78" t="s">
         <v>56</v>
       </c>
       <c r="F78">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1999,7 +1993,7 @@
         <v>13</v>
       </c>
       <c r="C79" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D79" t="s">
         <v>57</v>
@@ -2016,16 +2010,13 @@
         <v>13</v>
       </c>
       <c r="C80" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D80" t="s">
-        <v>59</v>
-      </c>
-      <c r="E80">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="F80">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2036,16 +2027,13 @@
         <v>13</v>
       </c>
       <c r="C81" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D81" t="s">
-        <v>64</v>
-      </c>
-      <c r="E81">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="F81">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2053,16 +2041,16 @@
         <v>7</v>
       </c>
       <c r="B82" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C82" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D82" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F82">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2070,103 +2058,15 @@
         <v>7</v>
       </c>
       <c r="B83" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C83" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D83" t="s">
         <v>57</v>
       </c>
       <c r="F83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" t="s">
-        <v>7</v>
-      </c>
-      <c r="B84" t="s">
-        <v>13</v>
-      </c>
-      <c r="C84" t="s">
-        <v>52</v>
-      </c>
-      <c r="D84" t="s">
-        <v>71</v>
-      </c>
-      <c r="E84">
-        <v>30</v>
-      </c>
-      <c r="F84">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" t="s">
-        <v>7</v>
-      </c>
-      <c r="B85" t="s">
-        <v>13</v>
-      </c>
-      <c r="C85" t="s">
-        <v>53</v>
-      </c>
-      <c r="D85" t="s">
-        <v>56</v>
-      </c>
-      <c r="F85">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" t="s">
-        <v>7</v>
-      </c>
-      <c r="B86" t="s">
-        <v>13</v>
-      </c>
-      <c r="C86" t="s">
-        <v>53</v>
-      </c>
-      <c r="D86" t="s">
-        <v>57</v>
-      </c>
-      <c r="F86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87" t="s">
-        <v>7</v>
-      </c>
-      <c r="B87" t="s">
-        <v>14</v>
-      </c>
-      <c r="C87" t="s">
-        <v>54</v>
-      </c>
-      <c r="D87" t="s">
-        <v>57</v>
-      </c>
-      <c r="F87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" t="s">
-        <v>7</v>
-      </c>
-      <c r="B88" t="s">
-        <v>14</v>
-      </c>
-      <c r="C88" t="s">
-        <v>55</v>
-      </c>
-      <c r="D88" t="s">
-        <v>57</v>
-      </c>
-      <c r="F88">
         <v>0</v>
       </c>
     </row>

--- a/Quality reports shared/tools difference.xlsx
+++ b/Quality reports shared/tools difference.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="71">
   <si>
     <t>district_name</t>
   </si>
@@ -146,9 +146,6 @@
   </si>
   <si>
     <t>Mpaama</t>
-  </si>
-  <si>
-    <t>Kammengo</t>
   </si>
   <si>
     <t>Kisimbanyiriri</t>
@@ -587,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -624,7 +621,7 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F2">
         <v>60</v>
@@ -641,7 +638,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -661,7 +658,7 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F4">
         <v>40</v>
@@ -678,7 +675,7 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -698,7 +695,7 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E6">
         <v>7</v>
@@ -718,7 +715,7 @@
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7">
         <v>7</v>
@@ -738,7 +735,7 @@
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -758,7 +755,7 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E9">
         <v>14</v>
@@ -778,7 +775,7 @@
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E10">
         <v>14</v>
@@ -798,7 +795,7 @@
         <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E11">
         <v>14</v>
@@ -818,7 +815,7 @@
         <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E12">
         <v>7</v>
@@ -838,7 +835,7 @@
         <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E13">
         <v>7</v>
@@ -858,7 +855,7 @@
         <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E14">
         <v>7</v>
@@ -878,7 +875,7 @@
         <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F15">
         <v>80</v>
@@ -895,7 +892,7 @@
         <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -915,7 +912,7 @@
         <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E17">
         <v>35</v>
@@ -935,7 +932,7 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E18">
         <v>14</v>
@@ -955,7 +952,7 @@
         <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E19">
         <v>7</v>
@@ -975,7 +972,7 @@
         <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E20">
         <v>70</v>
@@ -995,7 +992,7 @@
         <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E21">
         <v>35</v>
@@ -1015,7 +1012,7 @@
         <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F22">
         <v>50</v>
@@ -1032,7 +1029,7 @@
         <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1052,7 +1049,7 @@
         <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F24">
         <v>30</v>
@@ -1069,7 +1066,7 @@
         <v>19</v>
       </c>
       <c r="D25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1089,7 +1086,7 @@
         <v>20</v>
       </c>
       <c r="D26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F26">
         <v>20</v>
@@ -1106,7 +1103,7 @@
         <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F27">
         <v>2</v>
@@ -1120,13 +1117,16 @@
         <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D28" t="s">
-        <v>56</v>
+        <v>68</v>
+      </c>
+      <c r="E28">
+        <v>6</v>
       </c>
       <c r="F28">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1140,10 +1140,10 @@
         <v>21</v>
       </c>
       <c r="D29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1154,13 +1154,13 @@
         <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D30" t="s">
         <v>56</v>
       </c>
       <c r="F30">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1174,10 +1174,10 @@
         <v>22</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1188,13 +1188,13 @@
         <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D32" t="s">
         <v>56</v>
       </c>
       <c r="F32">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1208,13 +1208,10 @@
         <v>23</v>
       </c>
       <c r="D33" t="s">
-        <v>57</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1225,13 +1222,16 @@
         <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D34" t="s">
         <v>56</v>
       </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
       <c r="F34">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1245,10 +1245,10 @@
         <v>24</v>
       </c>
       <c r="D35" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1256,16 +1256,16 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D36" t="s">
         <v>56</v>
       </c>
       <c r="F36">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1276,10 +1276,10 @@
         <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F37">
         <v>20</v>
@@ -1296,10 +1296,10 @@
         <v>26</v>
       </c>
       <c r="D38" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1310,13 +1310,13 @@
         <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D39" t="s">
         <v>56</v>
       </c>
       <c r="F39">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1330,10 +1330,10 @@
         <v>27</v>
       </c>
       <c r="D40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1344,13 +1344,13 @@
         <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D41" t="s">
         <v>56</v>
       </c>
       <c r="F41">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1364,10 +1364,10 @@
         <v>28</v>
       </c>
       <c r="D42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1378,13 +1378,13 @@
         <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D43" t="s">
         <v>56</v>
       </c>
       <c r="F43">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1398,10 +1398,10 @@
         <v>29</v>
       </c>
       <c r="D44" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1412,13 +1412,13 @@
         <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D45" t="s">
         <v>56</v>
       </c>
       <c r="F45">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1432,10 +1432,10 @@
         <v>30</v>
       </c>
       <c r="D46" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1446,13 +1446,13 @@
         <v>10</v>
       </c>
       <c r="C47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D47" t="s">
         <v>56</v>
       </c>
       <c r="F47">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1466,10 +1466,10 @@
         <v>31</v>
       </c>
       <c r="D48" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1480,13 +1480,13 @@
         <v>10</v>
       </c>
       <c r="C49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D49" t="s">
         <v>56</v>
       </c>
       <c r="F49">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1500,10 +1500,10 @@
         <v>32</v>
       </c>
       <c r="D50" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1511,16 +1511,16 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D51" t="s">
         <v>56</v>
       </c>
       <c r="F51">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1534,13 +1534,10 @@
         <v>33</v>
       </c>
       <c r="D52" t="s">
-        <v>57</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="F52">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1551,13 +1548,16 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D53" t="s">
         <v>56</v>
       </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
       <c r="F53">
-        <v>50</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1568,13 +1568,13 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F54">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1585,13 +1585,13 @@
         <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F55">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1602,13 +1602,13 @@
         <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F56">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1619,13 +1619,13 @@
         <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F57">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1636,13 +1636,13 @@
         <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F58">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1653,30 +1653,30 @@
         <v>11</v>
       </c>
       <c r="C59" t="s">
+        <v>39</v>
+      </c>
+      <c r="D59" t="s">
+        <v>55</v>
+      </c>
+      <c r="F59">
         <v>40</v>
-      </c>
-      <c r="D59" t="s">
-        <v>56</v>
-      </c>
-      <c r="F59">
-        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D60" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1687,10 +1687,10 @@
         <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D61" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -1704,10 +1704,10 @@
         <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D62" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>7</v>
       </c>
       <c r="B63" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D63" t="s">
         <v>56</v>
       </c>
       <c r="F63">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1738,13 +1738,13 @@
         <v>13</v>
       </c>
       <c r="C64" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D64" t="s">
         <v>56</v>
       </c>
       <c r="F64">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1758,7 +1758,7 @@
         <v>45</v>
       </c>
       <c r="D65" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -1778,7 +1778,7 @@
         <v>56</v>
       </c>
       <c r="F66">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1789,10 +1789,10 @@
         <v>13</v>
       </c>
       <c r="C67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D67" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -1806,13 +1806,13 @@
         <v>13</v>
       </c>
       <c r="C68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D68" t="s">
         <v>56</v>
       </c>
       <c r="F68">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1823,13 +1823,13 @@
         <v>13</v>
       </c>
       <c r="C69" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D69" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1840,13 +1840,13 @@
         <v>13</v>
       </c>
       <c r="C70" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D70" t="s">
         <v>56</v>
       </c>
       <c r="F70">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1857,10 +1857,10 @@
         <v>13</v>
       </c>
       <c r="C71" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D71" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -1874,13 +1874,13 @@
         <v>13</v>
       </c>
       <c r="C72" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D72" t="s">
         <v>56</v>
       </c>
       <c r="F72">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1891,10 +1891,10 @@
         <v>13</v>
       </c>
       <c r="C73" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D73" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -1905,16 +1905,16 @@
         <v>7</v>
       </c>
       <c r="B74" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C74" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D74" t="s">
         <v>56</v>
       </c>
       <c r="F74">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1922,151 +1922,15 @@
         <v>7</v>
       </c>
       <c r="B75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C75" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D75" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" t="s">
-        <v>7</v>
-      </c>
-      <c r="B76" t="s">
-        <v>13</v>
-      </c>
-      <c r="C76" t="s">
-        <v>51</v>
-      </c>
-      <c r="D76" t="s">
-        <v>56</v>
-      </c>
-      <c r="F76">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" t="s">
-        <v>7</v>
-      </c>
-      <c r="B77" t="s">
-        <v>13</v>
-      </c>
-      <c r="C77" t="s">
-        <v>51</v>
-      </c>
-      <c r="D77" t="s">
-        <v>57</v>
-      </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" t="s">
-        <v>7</v>
-      </c>
-      <c r="B78" t="s">
-        <v>13</v>
-      </c>
-      <c r="C78" t="s">
-        <v>52</v>
-      </c>
-      <c r="D78" t="s">
-        <v>56</v>
-      </c>
-      <c r="F78">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" t="s">
-        <v>7</v>
-      </c>
-      <c r="B79" t="s">
-        <v>13</v>
-      </c>
-      <c r="C79" t="s">
-        <v>52</v>
-      </c>
-      <c r="D79" t="s">
-        <v>57</v>
-      </c>
-      <c r="F79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" t="s">
-        <v>7</v>
-      </c>
-      <c r="B80" t="s">
-        <v>13</v>
-      </c>
-      <c r="C80" t="s">
-        <v>53</v>
-      </c>
-      <c r="D80" t="s">
-        <v>56</v>
-      </c>
-      <c r="F80">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" t="s">
-        <v>7</v>
-      </c>
-      <c r="B81" t="s">
-        <v>13</v>
-      </c>
-      <c r="C81" t="s">
-        <v>53</v>
-      </c>
-      <c r="D81" t="s">
-        <v>57</v>
-      </c>
-      <c r="F81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" t="s">
-        <v>7</v>
-      </c>
-      <c r="B82" t="s">
-        <v>14</v>
-      </c>
-      <c r="C82" t="s">
-        <v>54</v>
-      </c>
-      <c r="D82" t="s">
-        <v>57</v>
-      </c>
-      <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" t="s">
-        <v>7</v>
-      </c>
-      <c r="B83" t="s">
-        <v>14</v>
-      </c>
-      <c r="C83" t="s">
-        <v>55</v>
-      </c>
-      <c r="D83" t="s">
-        <v>57</v>
-      </c>
-      <c r="F83">
         <v>0</v>
       </c>
     </row>

--- a/Quality reports shared/tools difference.xlsx
+++ b/Quality reports shared/tools difference.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="71">
   <si>
     <t>district_name</t>
   </si>
@@ -184,49 +184,49 @@
     <t>Pruning saw</t>
   </si>
   <si>
+    <t>Compound Sacks</t>
+  </si>
+  <si>
+    <t>Filters</t>
+  </si>
+  <si>
+    <t>Forked Hoe</t>
+  </si>
+  <si>
+    <t>Gloves</t>
+  </si>
+  <si>
+    <t>Hoes</t>
+  </si>
+  <si>
+    <t>Jerrycans</t>
+  </si>
+  <si>
+    <t>Mortar and Pestle</t>
+  </si>
+  <si>
+    <t>Pick Axe</t>
+  </si>
+  <si>
+    <t>Plastic Drums</t>
+  </si>
+  <si>
+    <t>Secateurs</t>
+  </si>
+  <si>
+    <t>Spade</t>
+  </si>
+  <si>
+    <t>Spray Pumps</t>
+  </si>
+  <si>
+    <t>Tarpaulin</t>
+  </si>
+  <si>
+    <t>Watering can</t>
+  </si>
+  <si>
     <t>Rope</t>
-  </si>
-  <si>
-    <t>Compound Sacks</t>
-  </si>
-  <si>
-    <t>Filters</t>
-  </si>
-  <si>
-    <t>Forked Hoe</t>
-  </si>
-  <si>
-    <t>Gloves</t>
-  </si>
-  <si>
-    <t>Hoes</t>
-  </si>
-  <si>
-    <t>Jerrycans</t>
-  </si>
-  <si>
-    <t>Mortar and Pestle</t>
-  </si>
-  <si>
-    <t>Pick Axe</t>
-  </si>
-  <si>
-    <t>Plastic Drums</t>
-  </si>
-  <si>
-    <t>Secateurs</t>
-  </si>
-  <si>
-    <t>Spade</t>
-  </si>
-  <si>
-    <t>Spray Pumps</t>
-  </si>
-  <si>
-    <t>Tarpaulin</t>
-  </si>
-  <si>
-    <t>Watering can</t>
   </si>
 </sst>
 </file>
@@ -584,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -635,16 +635,13 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -655,13 +652,16 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
       </c>
       <c r="F4">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -672,16 +672,16 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -695,7 +695,7 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E6">
         <v>7</v>
@@ -715,13 +715,13 @@
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E7">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -735,13 +735,13 @@
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F8">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -755,7 +755,7 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E9">
         <v>14</v>
@@ -775,13 +775,13 @@
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E10">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F10">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -795,13 +795,13 @@
         <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E11">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F11">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -815,7 +815,7 @@
         <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E12">
         <v>7</v>
@@ -835,13 +835,10 @@
         <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="F13">
-        <v>8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -858,10 +855,10 @@
         <v>65</v>
       </c>
       <c r="E14">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="F14">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -875,10 +872,13 @@
         <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>66</v>
+      </c>
+      <c r="E15">
+        <v>14</v>
       </c>
       <c r="F15">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -892,13 +892,13 @@
         <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -912,13 +912,13 @@
         <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E17">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="F17">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -932,13 +932,13 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E18">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="F18">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -949,16 +949,13 @@
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="F19">
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -969,16 +966,16 @@
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E20">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -989,16 +986,13 @@
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="F21">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1009,13 +1003,16 @@
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>70</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1023,19 +1020,16 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1043,16 +1037,16 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F24">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1060,19 +1054,19 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1083,13 +1077,13 @@
         <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D26" t="s">
         <v>55</v>
       </c>
       <c r="F26">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1100,13 +1094,13 @@
         <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D27" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1117,16 +1111,13 @@
         <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E28">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="F28">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1137,13 +1128,13 @@
         <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F29">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1154,13 +1145,13 @@
         <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1171,13 +1162,16 @@
         <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D31" t="s">
-        <v>55</v>
+        <v>70</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1188,13 +1182,13 @@
         <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1205,13 +1199,13 @@
         <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D33" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F33">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1219,19 +1213,16 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1239,16 +1230,16 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D35" t="s">
         <v>55</v>
       </c>
       <c r="F35">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1256,13 +1247,13 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D36" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -1276,13 +1267,13 @@
         <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D37" t="s">
         <v>55</v>
       </c>
       <c r="F37">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1293,13 +1284,13 @@
         <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D38" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F38">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1310,13 +1301,13 @@
         <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1327,13 +1318,13 @@
         <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D40" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F40">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1344,13 +1335,13 @@
         <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1361,13 +1352,13 @@
         <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D42" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F42">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1378,13 +1369,13 @@
         <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1395,13 +1386,13 @@
         <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D44" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F44">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1412,13 +1403,13 @@
         <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1429,13 +1420,13 @@
         <v>10</v>
       </c>
       <c r="C46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D46" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F46">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1446,13 +1437,13 @@
         <v>10</v>
       </c>
       <c r="C47" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" t="s">
+        <v>55</v>
+      </c>
+      <c r="F47">
         <v>30</v>
-      </c>
-      <c r="D47" t="s">
-        <v>56</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1463,13 +1454,13 @@
         <v>10</v>
       </c>
       <c r="C48" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D48" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F48">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1477,16 +1468,16 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1494,16 +1485,19 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D50" t="s">
-        <v>55</v>
+        <v>70</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1511,16 +1505,16 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1531,13 +1525,13 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D52" t="s">
         <v>55</v>
       </c>
       <c r="F52">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1548,16 +1542,13 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D53" t="s">
-        <v>56</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="F53">
-        <v>2</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1568,13 +1559,13 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D54" t="s">
         <v>55</v>
       </c>
       <c r="F54">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1585,13 +1576,13 @@
         <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D55" t="s">
         <v>55</v>
       </c>
       <c r="F55">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1602,13 +1593,13 @@
         <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D56" t="s">
         <v>55</v>
       </c>
       <c r="F56">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1619,64 +1610,64 @@
         <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D57" t="s">
         <v>55</v>
       </c>
       <c r="F57">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D58" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F58">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C59" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D59" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F59">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C60" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D60" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F60">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1684,13 +1675,13 @@
         <v>7</v>
       </c>
       <c r="B61" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C61" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D61" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -1701,13 +1692,13 @@
         <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C62" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D62" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -1718,13 +1709,13 @@
         <v>7</v>
       </c>
       <c r="B63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C63" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D63" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -1738,10 +1729,10 @@
         <v>13</v>
       </c>
       <c r="C64" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D64" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -1755,10 +1746,10 @@
         <v>13</v>
       </c>
       <c r="C65" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D65" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -1772,13 +1763,13 @@
         <v>13</v>
       </c>
       <c r="C66" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D66" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1789,10 +1780,10 @@
         <v>13</v>
       </c>
       <c r="C67" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D67" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -1806,10 +1797,10 @@
         <v>13</v>
       </c>
       <c r="C68" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D68" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -1823,13 +1814,13 @@
         <v>13</v>
       </c>
       <c r="C69" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D69" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F69">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1840,10 +1831,10 @@
         <v>13</v>
       </c>
       <c r="C70" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D70" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -1854,13 +1845,13 @@
         <v>7</v>
       </c>
       <c r="B71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C71" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D71" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -1871,66 +1862,15 @@
         <v>7</v>
       </c>
       <c r="B72" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C72" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D72" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" t="s">
-        <v>7</v>
-      </c>
-      <c r="B73" t="s">
-        <v>13</v>
-      </c>
-      <c r="C73" t="s">
-        <v>52</v>
-      </c>
-      <c r="D73" t="s">
-        <v>56</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" t="s">
-        <v>7</v>
-      </c>
-      <c r="B74" t="s">
-        <v>14</v>
-      </c>
-      <c r="C74" t="s">
-        <v>53</v>
-      </c>
-      <c r="D74" t="s">
-        <v>56</v>
-      </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" t="s">
-        <v>7</v>
-      </c>
-      <c r="B75" t="s">
-        <v>14</v>
-      </c>
-      <c r="C75" t="s">
-        <v>54</v>
-      </c>
-      <c r="D75" t="s">
-        <v>56</v>
-      </c>
-      <c r="F75">
         <v>0</v>
       </c>
     </row>

--- a/Quality reports shared/tools difference.xlsx
+++ b/Quality reports shared/tools difference.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="71">
   <si>
     <t>district_name</t>
   </si>
@@ -584,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -966,16 +966,13 @@
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -983,16 +980,16 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
         <v>55</v>
       </c>
       <c r="F21">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1000,19 +997,16 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D22" t="s">
         <v>70</v>
       </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
       <c r="F22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1026,10 +1020,13 @@
         <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>67</v>
+      </c>
+      <c r="E23">
+        <v>6</v>
       </c>
       <c r="F23">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1040,13 +1037,13 @@
         <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D24" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1057,16 +1054,13 @@
         <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="F25">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1077,7 +1071,7 @@
         <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D26" t="s">
         <v>55</v>
@@ -1094,7 +1088,7 @@
         <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D27" t="s">
         <v>70</v>
@@ -1111,7 +1105,7 @@
         <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D28" t="s">
         <v>55</v>
@@ -1128,13 +1122,13 @@
         <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D29" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1145,13 +1139,13 @@
         <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D30" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F30">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1159,19 +1153,16 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>70</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1179,16 +1170,16 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D32" t="s">
         <v>55</v>
       </c>
       <c r="F32">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1196,10 +1187,10 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D33" t="s">
         <v>70</v>
@@ -1216,13 +1207,13 @@
         <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D34" t="s">
         <v>55</v>
       </c>
       <c r="F34">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1233,13 +1224,13 @@
         <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D35" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F35">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1250,13 +1241,13 @@
         <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D36" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1267,13 +1258,13 @@
         <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D37" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F37">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1284,13 +1275,13 @@
         <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D38" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1301,13 +1292,13 @@
         <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D39" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F39">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1318,13 +1309,13 @@
         <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D40" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1335,13 +1326,13 @@
         <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D41" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F41">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1352,13 +1343,13 @@
         <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D42" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1369,13 +1360,13 @@
         <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D43" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F43">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1386,13 +1377,13 @@
         <v>10</v>
       </c>
       <c r="C44" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" t="s">
+        <v>55</v>
+      </c>
+      <c r="F44">
         <v>30</v>
-      </c>
-      <c r="D44" t="s">
-        <v>70</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1403,13 +1394,13 @@
         <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D45" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F45">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1417,16 +1408,16 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D46" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1434,16 +1425,16 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D47" t="s">
         <v>55</v>
       </c>
       <c r="F47">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1451,16 +1442,16 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D48" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1471,13 +1462,13 @@
         <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D49" t="s">
         <v>55</v>
       </c>
       <c r="F49">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1488,16 +1479,13 @@
         <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D50" t="s">
-        <v>70</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="F50">
-        <v>2</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1508,7 +1496,7 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D51" t="s">
         <v>55</v>
@@ -1525,7 +1513,7 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D52" t="s">
         <v>55</v>
@@ -1542,81 +1530,81 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D53" t="s">
         <v>55</v>
       </c>
       <c r="F53">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C54" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D54" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F54">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D55" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F55">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C56" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D56" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F56">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B57" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C57" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D57" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F57">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1624,10 +1612,10 @@
         <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C58" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D58" t="s">
         <v>70</v>
@@ -1641,10 +1629,10 @@
         <v>7</v>
       </c>
       <c r="B59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C59" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D59" t="s">
         <v>70</v>
@@ -1658,10 +1646,10 @@
         <v>7</v>
       </c>
       <c r="B60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C60" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D60" t="s">
         <v>70</v>
@@ -1678,7 +1666,7 @@
         <v>13</v>
       </c>
       <c r="C61" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D61" t="s">
         <v>70</v>
@@ -1695,7 +1683,7 @@
         <v>13</v>
       </c>
       <c r="C62" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D62" t="s">
         <v>70</v>
@@ -1712,7 +1700,7 @@
         <v>13</v>
       </c>
       <c r="C63" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D63" t="s">
         <v>70</v>
@@ -1729,7 +1717,7 @@
         <v>13</v>
       </c>
       <c r="C64" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D64" t="s">
         <v>70</v>
@@ -1746,7 +1734,7 @@
         <v>13</v>
       </c>
       <c r="C65" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D65" t="s">
         <v>70</v>
@@ -1760,16 +1748,16 @@
         <v>7</v>
       </c>
       <c r="B66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C66" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D66" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F66">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1777,100 +1765,15 @@
         <v>7</v>
       </c>
       <c r="B67" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C67" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D67" t="s">
         <v>70</v>
       </c>
       <c r="F67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" t="s">
-        <v>7</v>
-      </c>
-      <c r="B68" t="s">
-        <v>13</v>
-      </c>
-      <c r="C68" t="s">
-        <v>50</v>
-      </c>
-      <c r="D68" t="s">
-        <v>70</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" t="s">
-        <v>7</v>
-      </c>
-      <c r="B69" t="s">
-        <v>13</v>
-      </c>
-      <c r="C69" t="s">
-        <v>51</v>
-      </c>
-      <c r="D69" t="s">
-        <v>70</v>
-      </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" t="s">
-        <v>7</v>
-      </c>
-      <c r="B70" t="s">
-        <v>13</v>
-      </c>
-      <c r="C70" t="s">
-        <v>52</v>
-      </c>
-      <c r="D70" t="s">
-        <v>70</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" t="s">
-        <v>7</v>
-      </c>
-      <c r="B71" t="s">
-        <v>14</v>
-      </c>
-      <c r="C71" t="s">
-        <v>53</v>
-      </c>
-      <c r="D71" t="s">
-        <v>70</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" t="s">
-        <v>7</v>
-      </c>
-      <c r="B72" t="s">
-        <v>14</v>
-      </c>
-      <c r="C72" t="s">
-        <v>54</v>
-      </c>
-      <c r="D72" t="s">
-        <v>70</v>
-      </c>
-      <c r="F72">
         <v>0</v>
       </c>
     </row>

--- a/Quality reports shared/tools difference.xlsx
+++ b/Quality reports shared/tools difference.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="57">
   <si>
     <t>district_name</t>
   </si>
@@ -49,9 +49,6 @@
     <t>Nganiko</t>
   </si>
   <si>
-    <t>Nyakacwamba</t>
-  </si>
-  <si>
     <t>Kanoni</t>
   </si>
   <si>
@@ -61,21 +58,9 @@
     <t>Kyamakanaga</t>
   </si>
   <si>
-    <t>Bujumiro_A</t>
-  </si>
-  <si>
-    <t>Bujumiro_B</t>
-  </si>
-  <si>
     <t>Kanyamburara</t>
   </si>
   <si>
-    <t>Kyarubingo</t>
-  </si>
-  <si>
-    <t>Nyabwina_Buhanda</t>
-  </si>
-  <si>
     <t>Muyenga_Central</t>
   </si>
   <si>
@@ -85,9 +70,6 @@
     <t>Nganiko_2</t>
   </si>
   <si>
-    <t>Nganiko_3</t>
-  </si>
-  <si>
     <t>Zanzibar</t>
   </si>
   <si>
@@ -115,30 +97,6 @@
     <t>Nganiko_TC</t>
   </si>
   <si>
-    <t>Kapapari</t>
-  </si>
-  <si>
-    <t>Karere_Nyakacwamba</t>
-  </si>
-  <si>
-    <t>Karubuguma_1</t>
-  </si>
-  <si>
-    <t>Karubuguma_2</t>
-  </si>
-  <si>
-    <t>Mpanga_Nyakacwamba</t>
-  </si>
-  <si>
-    <t>Nyakacwamba_1</t>
-  </si>
-  <si>
-    <t>Nyakacwamba_2</t>
-  </si>
-  <si>
-    <t>Rwengwe_Nyakacwamba</t>
-  </si>
-  <si>
     <t>Kanoni_Rakai</t>
   </si>
   <si>
@@ -181,34 +139,34 @@
     <t>Nnongo_A</t>
   </si>
   <si>
+    <t>Compound Sacks</t>
+  </si>
+  <si>
+    <t>Filters</t>
+  </si>
+  <si>
+    <t>Forked Hoe</t>
+  </si>
+  <si>
+    <t>Gloves</t>
+  </si>
+  <si>
+    <t>Hoes</t>
+  </si>
+  <si>
+    <t>Jerrycans</t>
+  </si>
+  <si>
+    <t>Mortar and Pestle</t>
+  </si>
+  <si>
+    <t>Pick Axe</t>
+  </si>
+  <si>
+    <t>Plastic Drums</t>
+  </si>
+  <si>
     <t>Pruning saw</t>
-  </si>
-  <si>
-    <t>Compound Sacks</t>
-  </si>
-  <si>
-    <t>Filters</t>
-  </si>
-  <si>
-    <t>Forked Hoe</t>
-  </si>
-  <si>
-    <t>Gloves</t>
-  </si>
-  <si>
-    <t>Hoes</t>
-  </si>
-  <si>
-    <t>Jerrycans</t>
-  </si>
-  <si>
-    <t>Mortar and Pestle</t>
-  </si>
-  <si>
-    <t>Pick Axe</t>
-  </si>
-  <si>
-    <t>Plastic Drums</t>
   </si>
   <si>
     <t>Secateurs</t>
@@ -584,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -618,13 +576,16 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>41</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
       </c>
       <c r="F2">
-        <v>60</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -635,13 +596,16 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>42</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
       </c>
       <c r="F3">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -652,10 +616,10 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E4">
         <v>7</v>
@@ -672,16 +636,16 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="E5">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -692,16 +656,16 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E6">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F6">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -712,10 +676,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="E7">
         <v>14</v>
@@ -732,16 +696,16 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="E8">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F8">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -752,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="E9">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F9">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -772,10 +736,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="E10">
         <v>7</v>
@@ -792,16 +756,16 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="E11">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="F11">
-        <v>8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -812,16 +776,16 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E12">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="F12">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -832,13 +796,16 @@
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>52</v>
+      </c>
+      <c r="E13">
+        <v>14</v>
       </c>
       <c r="F13">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -849,16 +816,16 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E14">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="F14">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -869,16 +836,16 @@
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E15">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="F15">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -889,16 +856,16 @@
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E16">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="F16">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -906,19 +873,16 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="F17">
-        <v>80</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -926,19 +890,19 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E18">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="F18">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -946,16 +910,16 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F19">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -963,16 +927,16 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F20">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -983,13 +947,13 @@
         <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F21">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -997,16 +961,16 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22">
         <v>20</v>
-      </c>
-      <c r="D22" t="s">
-        <v>70</v>
-      </c>
-      <c r="F22">
-        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1014,19 +978,16 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
         <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
-      </c>
-      <c r="E23">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="F23">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1034,16 +995,16 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
         <v>21</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F24">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1051,13 +1012,13 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D25" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1068,16 +1029,16 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F26">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1085,13 +1046,13 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D27" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1102,16 +1063,16 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F28">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1119,30 +1080,30 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F29">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1150,50 +1111,50 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F31">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F32">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D33" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1201,33 +1162,33 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F34">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D35" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -1235,33 +1196,33 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F36">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1269,33 +1230,33 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F38">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D39" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1303,33 +1264,33 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F40">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C41" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D41" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -1337,443 +1298,35 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C42" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F42">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C43" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D43" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="F43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" t="s">
-        <v>32</v>
-      </c>
-      <c r="D44" t="s">
-        <v>55</v>
-      </c>
-      <c r="F44">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" t="s">
-        <v>6</v>
-      </c>
-      <c r="B45" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" t="s">
-        <v>32</v>
-      </c>
-      <c r="D45" t="s">
-        <v>70</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" t="s">
-        <v>6</v>
-      </c>
-      <c r="B46" t="s">
-        <v>11</v>
-      </c>
-      <c r="C46" t="s">
-        <v>33</v>
-      </c>
-      <c r="D46" t="s">
-        <v>55</v>
-      </c>
-      <c r="F46">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" t="s">
-        <v>6</v>
-      </c>
-      <c r="B47" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" t="s">
-        <v>34</v>
-      </c>
-      <c r="D47" t="s">
-        <v>55</v>
-      </c>
-      <c r="F47">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" t="s">
-        <v>6</v>
-      </c>
-      <c r="B48" t="s">
-        <v>11</v>
-      </c>
-      <c r="C48" t="s">
-        <v>35</v>
-      </c>
-      <c r="D48" t="s">
-        <v>55</v>
-      </c>
-      <c r="F48">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" t="s">
-        <v>6</v>
-      </c>
-      <c r="B49" t="s">
-        <v>11</v>
-      </c>
-      <c r="C49" t="s">
-        <v>36</v>
-      </c>
-      <c r="D49" t="s">
-        <v>55</v>
-      </c>
-      <c r="F49">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" t="s">
-        <v>6</v>
-      </c>
-      <c r="B50" t="s">
-        <v>11</v>
-      </c>
-      <c r="C50" t="s">
-        <v>37</v>
-      </c>
-      <c r="D50" t="s">
-        <v>55</v>
-      </c>
-      <c r="F50">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" t="s">
-        <v>6</v>
-      </c>
-      <c r="B51" t="s">
-        <v>11</v>
-      </c>
-      <c r="C51" t="s">
-        <v>38</v>
-      </c>
-      <c r="D51" t="s">
-        <v>55</v>
-      </c>
-      <c r="F51">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" t="s">
-        <v>6</v>
-      </c>
-      <c r="B52" t="s">
-        <v>11</v>
-      </c>
-      <c r="C52" t="s">
-        <v>39</v>
-      </c>
-      <c r="D52" t="s">
-        <v>55</v>
-      </c>
-      <c r="F52">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" t="s">
-        <v>6</v>
-      </c>
-      <c r="B53" t="s">
-        <v>11</v>
-      </c>
-      <c r="C53" t="s">
-        <v>40</v>
-      </c>
-      <c r="D53" t="s">
-        <v>55</v>
-      </c>
-      <c r="F53">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" t="s">
-        <v>7</v>
-      </c>
-      <c r="B54" t="s">
-        <v>12</v>
-      </c>
-      <c r="C54" t="s">
-        <v>41</v>
-      </c>
-      <c r="D54" t="s">
-        <v>70</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" t="s">
-        <v>7</v>
-      </c>
-      <c r="B55" t="s">
-        <v>12</v>
-      </c>
-      <c r="C55" t="s">
-        <v>42</v>
-      </c>
-      <c r="D55" t="s">
-        <v>70</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" t="s">
-        <v>7</v>
-      </c>
-      <c r="B56" t="s">
-        <v>12</v>
-      </c>
-      <c r="C56" t="s">
-        <v>43</v>
-      </c>
-      <c r="D56" t="s">
-        <v>70</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" t="s">
-        <v>7</v>
-      </c>
-      <c r="B57" t="s">
-        <v>13</v>
-      </c>
-      <c r="C57" t="s">
-        <v>44</v>
-      </c>
-      <c r="D57" t="s">
-        <v>70</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" t="s">
-        <v>7</v>
-      </c>
-      <c r="B58" t="s">
-        <v>13</v>
-      </c>
-      <c r="C58" t="s">
-        <v>45</v>
-      </c>
-      <c r="D58" t="s">
-        <v>70</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" t="s">
-        <v>7</v>
-      </c>
-      <c r="B59" t="s">
-        <v>13</v>
-      </c>
-      <c r="C59" t="s">
-        <v>46</v>
-      </c>
-      <c r="D59" t="s">
-        <v>70</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" t="s">
-        <v>7</v>
-      </c>
-      <c r="B60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C60" t="s">
-        <v>47</v>
-      </c>
-      <c r="D60" t="s">
-        <v>70</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" t="s">
-        <v>7</v>
-      </c>
-      <c r="B61" t="s">
-        <v>13</v>
-      </c>
-      <c r="C61" t="s">
-        <v>48</v>
-      </c>
-      <c r="D61" t="s">
-        <v>70</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" t="s">
-        <v>7</v>
-      </c>
-      <c r="B62" t="s">
-        <v>13</v>
-      </c>
-      <c r="C62" t="s">
-        <v>49</v>
-      </c>
-      <c r="D62" t="s">
-        <v>70</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" t="s">
-        <v>7</v>
-      </c>
-      <c r="B63" t="s">
-        <v>13</v>
-      </c>
-      <c r="C63" t="s">
-        <v>50</v>
-      </c>
-      <c r="D63" t="s">
-        <v>70</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" t="s">
-        <v>7</v>
-      </c>
-      <c r="B64" t="s">
-        <v>13</v>
-      </c>
-      <c r="C64" t="s">
-        <v>51</v>
-      </c>
-      <c r="D64" t="s">
-        <v>70</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" t="s">
-        <v>7</v>
-      </c>
-      <c r="B65" t="s">
-        <v>13</v>
-      </c>
-      <c r="C65" t="s">
-        <v>52</v>
-      </c>
-      <c r="D65" t="s">
-        <v>70</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" t="s">
-        <v>7</v>
-      </c>
-      <c r="B66" t="s">
-        <v>14</v>
-      </c>
-      <c r="C66" t="s">
-        <v>53</v>
-      </c>
-      <c r="D66" t="s">
-        <v>70</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" t="s">
-        <v>7</v>
-      </c>
-      <c r="B67" t="s">
-        <v>14</v>
-      </c>
-      <c r="C67" t="s">
-        <v>54</v>
-      </c>
-      <c r="D67" t="s">
-        <v>70</v>
-      </c>
-      <c r="F67">
         <v>0</v>
       </c>
     </row>

--- a/Quality reports shared/tools difference.xlsx
+++ b/Quality reports shared/tools difference.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="56">
   <si>
     <t>district_name</t>
   </si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>Zanzibar</t>
-  </si>
-  <si>
-    <t>Kagorogoro_A</t>
   </si>
   <si>
     <t>Kagorogoro_B</t>
@@ -542,7 +539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -579,7 +576,7 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2">
         <v>7</v>
@@ -599,7 +596,7 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3">
         <v>7</v>
@@ -619,7 +616,7 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4">
         <v>7</v>
@@ -639,7 +636,7 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5">
         <v>14</v>
@@ -659,7 +656,7 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6">
         <v>14</v>
@@ -679,7 +676,7 @@
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7">
         <v>14</v>
@@ -699,7 +696,7 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -719,7 +716,7 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9">
         <v>7</v>
@@ -739,7 +736,7 @@
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10">
         <v>7</v>
@@ -759,7 +756,7 @@
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E11">
         <v>70</v>
@@ -779,7 +776,7 @@
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E12">
         <v>35</v>
@@ -799,7 +796,7 @@
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E13">
         <v>14</v>
@@ -819,7 +816,7 @@
         <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E14">
         <v>7</v>
@@ -839,7 +836,7 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E15">
         <v>70</v>
@@ -859,7 +856,7 @@
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E16">
         <v>35</v>
@@ -879,7 +876,7 @@
         <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -896,7 +893,7 @@
         <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>6</v>
@@ -916,7 +913,7 @@
         <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -933,7 +930,7 @@
         <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -950,7 +947,7 @@
         <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -967,10 +964,10 @@
         <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F22">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -984,7 +981,7 @@
         <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1001,7 +998,7 @@
         <v>21</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1018,7 +1015,7 @@
         <v>22</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1035,7 +1032,7 @@
         <v>23</v>
       </c>
       <c r="D26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1052,7 +1049,7 @@
         <v>24</v>
       </c>
       <c r="D27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1069,7 +1066,7 @@
         <v>25</v>
       </c>
       <c r="D28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1077,16 +1074,16 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C29" t="s">
         <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1103,7 +1100,7 @@
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1120,7 +1117,7 @@
         <v>28</v>
       </c>
       <c r="D31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1131,13 +1128,13 @@
         <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C32" t="s">
         <v>29</v>
       </c>
       <c r="D32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1154,7 +1151,7 @@
         <v>30</v>
       </c>
       <c r="D33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1171,7 +1168,7 @@
         <v>31</v>
       </c>
       <c r="D34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1188,7 +1185,7 @@
         <v>32</v>
       </c>
       <c r="D35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -1205,7 +1202,7 @@
         <v>33</v>
       </c>
       <c r="D36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -1222,7 +1219,7 @@
         <v>34</v>
       </c>
       <c r="D37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1239,7 +1236,7 @@
         <v>35</v>
       </c>
       <c r="D38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1256,7 +1253,7 @@
         <v>36</v>
       </c>
       <c r="D39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1273,7 +1270,7 @@
         <v>37</v>
       </c>
       <c r="D40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -1284,13 +1281,13 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C41" t="s">
         <v>38</v>
       </c>
       <c r="D41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -1307,26 +1304,9 @@
         <v>39</v>
       </c>
       <c r="D42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" t="s">
-        <v>13</v>
-      </c>
-      <c r="C43" t="s">
-        <v>40</v>
-      </c>
-      <c r="D43" t="s">
-        <v>56</v>
-      </c>
-      <c r="F43">
         <v>0</v>
       </c>
     </row>
